--- a/data/exploratory_loadings_fpt4.xlsx
+++ b/data/exploratory_loadings_fpt4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/076a438a88ad6cf7/trabalho/repositorios/mfv_llm/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\alunos-pg\joseluizn\mfv_llm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_34B949B087498E0F62355476585DCE3A8747DF54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66C92DA8-F28F-4CF5-99A8-35C04A64357E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390F667C-FBE9-45A1-B2A2-2DB50A225800}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,17 +339,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -669,9 +659,9 @@
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>102</v>
       </c>
@@ -735,7 +725,7 @@
         <v>-2.469160389704932E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>103</v>
       </c>
@@ -767,7 +757,7 @@
         <v>0.23362183371305101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>104</v>
       </c>
@@ -799,7 +789,7 @@
         <v>9.4238953993813032E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>105</v>
       </c>
@@ -831,7 +821,7 @@
         <v>0.33152558900961288</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>108</v>
       </c>
@@ -863,7 +853,7 @@
         <v>0.1661169643372831</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>109</v>
       </c>
@@ -895,7 +885,7 @@
         <v>-2.985648547143098E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>110</v>
       </c>
@@ -927,7 +917,7 @@
         <v>0.1783767526208507</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>111</v>
       </c>
@@ -959,7 +949,7 @@
         <v>3.6863599558207533E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>112</v>
       </c>
@@ -991,7 +981,7 @@
         <v>0.1139841043101211</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>113</v>
       </c>
@@ -1023,7 +1013,7 @@
         <v>8.5909774700410946E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>114</v>
       </c>
@@ -1055,7 +1045,7 @@
         <v>-3.2606982173254077E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>201</v>
       </c>
@@ -1087,7 +1077,7 @@
         <v>5.8439665166922339E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>202</v>
       </c>
@@ -1119,7 +1109,7 @@
         <v>5.1443643572001707E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>203</v>
       </c>
@@ -1151,7 +1141,7 @@
         <v>3.0310094945683552E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>204</v>
       </c>
@@ -1183,7 +1173,7 @@
         <v>-0.14265851466270379</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>205</v>
       </c>
@@ -1215,7 +1205,7 @@
         <v>1.311766817705123E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>206</v>
       </c>
@@ -1247,7 +1237,7 @@
         <v>-3.3380607661630278E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>207</v>
       </c>
@@ -1279,7 +1269,7 @@
         <v>2.271402074132849E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>208</v>
       </c>
@@ -1311,7 +1301,7 @@
         <v>-9.8083850279520081E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>303</v>
       </c>
@@ -1343,7 +1333,7 @@
         <v>5.4992781293891402E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>402</v>
       </c>
@@ -1375,7 +1365,7 @@
         <v>0.1290020048361771</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>403</v>
       </c>
@@ -1407,7 +1397,7 @@
         <v>-5.7163935111813682E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>404</v>
       </c>
@@ -1439,7 +1429,7 @@
         <v>0.21408783502468759</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>405</v>
       </c>
@@ -1471,7 +1461,7 @@
         <v>0.26312907882647429</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>406</v>
       </c>
@@ -1503,7 +1493,7 @@
         <v>0.36910365092686731</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>408</v>
       </c>
@@ -1535,7 +1525,7 @@
         <v>0.23092323555387731</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>409</v>
       </c>
@@ -1567,7 +1557,7 @@
         <v>0.44745191973668008</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>410</v>
       </c>
@@ -1599,7 +1589,7 @@
         <v>0.1098622880593831</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>411</v>
       </c>
@@ -1631,7 +1621,7 @@
         <v>0.40332941855679638</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>501</v>
       </c>
@@ -1663,7 +1653,7 @@
         <v>-2.405454987798869E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>502</v>
       </c>
@@ -1695,7 +1685,7 @@
         <v>0.17951625987569941</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>503</v>
       </c>
@@ -1727,7 +1717,7 @@
         <v>-1.333617577270187E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>504</v>
       </c>
@@ -1759,7 +1749,7 @@
         <v>0.29504653505863482</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>507</v>
       </c>
@@ -1791,7 +1781,7 @@
         <v>-8.5034100248586542E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>509</v>
       </c>
@@ -1823,7 +1813,7 @@
         <v>-0.21873809845927639</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>510</v>
       </c>
@@ -1855,7 +1845,7 @@
         <v>-9.8868063321400954E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>601</v>
       </c>
@@ -1887,7 +1877,7 @@
         <v>-0.13469938469117801</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>602</v>
       </c>
@@ -1919,7 +1909,7 @@
         <v>5.6722079674342868E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>603</v>
       </c>
@@ -1951,7 +1941,7 @@
         <v>0.58068482224766549</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>604</v>
       </c>
@@ -1983,7 +1973,7 @@
         <v>3.3157753278336738E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>605</v>
       </c>
@@ -2015,7 +2005,7 @@
         <v>-6.8710788046945928E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>608</v>
       </c>
@@ -2047,7 +2037,7 @@
         <v>-3.6388547138525899E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>610</v>
       </c>
@@ -2079,7 +2069,7 @@
         <v>-0.22915571586367939</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>611</v>
       </c>
@@ -2111,7 +2101,7 @@
         <v>0.11928701552103251</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>612</v>
       </c>
@@ -2143,7 +2133,7 @@
         <v>-0.19284486125116129</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>614</v>
       </c>
@@ -2175,7 +2165,7 @@
         <v>-7.6609649448118683E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>701</v>
       </c>
@@ -2207,7 +2197,7 @@
         <v>1.411176408927361E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>702</v>
       </c>
@@ -2239,7 +2229,7 @@
         <v>-7.9664396569216991E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>703</v>
       </c>
@@ -2271,7 +2261,7 @@
         <v>-0.1066007051875168</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>704</v>
       </c>
@@ -2303,7 +2293,7 @@
         <v>-2.775556184523013E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>705</v>
       </c>
@@ -2335,7 +2325,7 @@
         <v>0.69264059746085038</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>706</v>
       </c>
@@ -2367,7 +2357,7 @@
         <v>7.410733059090778E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>707</v>
       </c>
@@ -2399,7 +2389,7 @@
         <v>0.25915265231421503</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>709</v>
       </c>
@@ -2431,7 +2421,7 @@
         <v>1.6815894927918E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>710</v>
       </c>
@@ -2463,7 +2453,7 @@
         <v>0.35581108782230991</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>711</v>
       </c>
@@ -2495,7 +2485,7 @@
         <v>6.3248059799532644E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>712</v>
       </c>
@@ -2527,7 +2517,7 @@
         <v>0.16537901439881181</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>713</v>
       </c>
@@ -2559,7 +2549,7 @@
         <v>-0.1015699216653678</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>714</v>
       </c>
@@ -2591,7 +2581,7 @@
         <v>3.2171964140522348E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>715</v>
       </c>
@@ -2623,7 +2613,7 @@
         <v>8.5849509706621575E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>716</v>
       </c>
@@ -2655,7 +2645,7 @@
         <v>-0.1018062159164192</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>801</v>
       </c>
@@ -2687,7 +2677,7 @@
         <v>0.1130346285846225</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>802</v>
       </c>
@@ -2719,7 +2709,7 @@
         <v>0.1441695116659247</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>803</v>
       </c>
@@ -2751,7 +2741,7 @@
         <v>2.349357960767285E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>804</v>
       </c>
@@ -2783,7 +2773,7 @@
         <v>4.6043279143547829E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>805</v>
       </c>
@@ -2815,7 +2805,7 @@
         <v>3.1638035210817463E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>808</v>
       </c>
@@ -2847,7 +2837,7 @@
         <v>-8.1588791731692756E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>810</v>
       </c>
@@ -2881,10 +2871,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:J69">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
